--- a/data/monetary/M_1245.xlsx
+++ b/data/monetary/M_1245.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuj55142\Documents\GitHub\istart\Mock_Scan\Monetary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/monetary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D219D-9E90-C844-991C-7C2D3BB7B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-effort_run-monetary_sub-12" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="47">
-  <si>
-    <t>C:\Users\tuj55142\Documents\GitHub\istart\Mock_Scan\Monetary\EEfRTTextCuesV2_Win1_v2_815-1245-1.edat2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="46">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -165,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,128 +966,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1245</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7.12</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>60.011000000000003</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
+      <c r="L2">
+        <v>-600402467</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44369</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44369.749131944445</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.58246527777777779</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="s">
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>36</v>
       </c>
       <c r="B3">
         <v>1245</v>
@@ -1101,10 +1173,10 @@
         <v>7.12</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
       </c>
       <c r="G3">
         <v>60.011000000000003</v>
@@ -1113,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1125,13 +1197,13 @@
         <v>-600402467</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1">
         <v>44369</v>
@@ -1143,30 +1215,30 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="s">
         <v>43</v>
       </c>
       <c r="AD3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1245</v>
@@ -1178,10 +1250,10 @@
         <v>7.12</v>
       </c>
       <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
       </c>
       <c r="G4">
         <v>60.011000000000003</v>
@@ -1190,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1202,13 +1274,13 @@
         <v>-600402467</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="1">
         <v>44369</v>
@@ -1220,30 +1292,30 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>1245</v>
@@ -1255,10 +1327,10 @@
         <v>7.12</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
       </c>
       <c r="G5">
         <v>60.011000000000003</v>
@@ -1267,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1279,13 +1351,13 @@
         <v>-600402467</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="1">
         <v>44369</v>
@@ -1297,30 +1369,30 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="s">
         <v>42</v>
       </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>44</v>
-      </c>
       <c r="AD5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1245</v>
@@ -1332,10 +1404,10 @@
         <v>7.12</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
       <c r="G6">
         <v>60.011000000000003</v>
@@ -1344,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1356,13 +1428,13 @@
         <v>-600402467</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6" s="1">
         <v>44369</v>
@@ -1374,30 +1446,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="Y6">
-        <v>4</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>3.04</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>2362</v>
+      </c>
+      <c r="AB6">
+        <v>12</v>
       </c>
       <c r="AC6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD6" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="AE6">
+        <v>0.1694667</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1245</v>
@@ -1409,10 +1502,10 @@
         <v>7.12</v>
       </c>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
       </c>
       <c r="G7">
         <v>60.011000000000003</v>
@@ -1421,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1433,13 +1526,13 @@
         <v>-600402467</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1">
         <v>44369</v>
@@ -1451,13 +1544,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>3.04</v>
+        <v>1.42</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1466,36 +1559,36 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>2362</v>
+        <v>1509</v>
       </c>
       <c r="AB7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE7">
-        <v>0.1694667</v>
+        <v>0.17610000000000001</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG7">
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>1245</v>
@@ -1507,10 +1600,10 @@
         <v>7.12</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
       <c r="G8">
         <v>60.011000000000003</v>
@@ -1519,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1531,13 +1624,13 @@
         <v>-600402467</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="1">
         <v>44369</v>
@@ -1549,13 +1642,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>1.42</v>
+        <v>2.86</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1564,36 +1657,36 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>1509</v>
+        <v>2314</v>
       </c>
       <c r="AB8">
         <v>50</v>
       </c>
       <c r="AC8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE8">
-        <v>0.17610000000000001</v>
+        <v>0.1827667</v>
       </c>
       <c r="AF8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG8">
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>1245</v>
@@ -1605,10 +1698,10 @@
         <v>7.12</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
       </c>
       <c r="G9">
         <v>60.011000000000003</v>
@@ -1617,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1629,13 +1722,13 @@
         <v>-600402467</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="1">
         <v>44369</v>
@@ -1647,51 +1740,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>2.86</v>
+        <v>3.22</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
-        <v>2314</v>
+        <v>1271</v>
       </c>
       <c r="AB9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC9" t="s">
         <v>45</v>
       </c>
       <c r="AD9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE9">
-        <v>0.1827667</v>
+        <v>0.18964</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG9">
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.22</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>1245</v>
@@ -1703,10 +1796,10 @@
         <v>7.12</v>
       </c>
       <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
       </c>
       <c r="G10">
         <v>60.011000000000003</v>
@@ -1715,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1727,13 +1820,13 @@
         <v>-600402467</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="1">
         <v>44369</v>
@@ -1745,51 +1838,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>3.22</v>
+        <v>1.78</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1271</v>
+        <v>1469</v>
       </c>
       <c r="AB10">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE10">
-        <v>0.18964</v>
+        <v>0.17113329999999999</v>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG10">
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>3.22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1245</v>
@@ -1801,10 +1894,10 @@
         <v>7.12</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
       <c r="G11">
         <v>60.011000000000003</v>
@@ -1813,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1825,13 +1918,13 @@
         <v>-600402467</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="1">
         <v>44369</v>
@@ -1843,13 +1936,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1858,36 +1951,36 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1469</v>
+        <v>2081</v>
       </c>
       <c r="AB11">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
         <v>45</v>
       </c>
       <c r="AD11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE11">
-        <v>0.17113329999999999</v>
+        <v>0.1711</v>
       </c>
       <c r="AF11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11">
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>1245</v>
@@ -1899,10 +1992,10 @@
         <v>7.12</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
       </c>
       <c r="G12">
         <v>60.011000000000003</v>
@@ -1911,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1923,13 +2016,13 @@
         <v>-600402467</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="1">
         <v>44369</v>
@@ -1941,51 +2034,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U12">
-        <v>1.96</v>
+        <v>2.68</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
-        <v>2081</v>
+        <v>1390</v>
       </c>
       <c r="AB12">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE12">
-        <v>0.1711</v>
+        <v>0.19681000000000001</v>
       </c>
       <c r="AF12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1245</v>
@@ -1997,10 +2090,10 @@
         <v>7.12</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
       </c>
       <c r="G13">
         <v>60.011000000000003</v>
@@ -2009,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2021,13 +2114,13 @@
         <v>-600402467</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="1">
         <v>44369</v>
@@ -2039,51 +2132,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U13">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="X13">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="AB13">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC13" t="s">
         <v>45</v>
       </c>
       <c r="AD13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE13">
-        <v>0.19681000000000001</v>
+        <v>0.17056669999999999</v>
       </c>
       <c r="AF13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG13">
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1245</v>
@@ -2095,10 +2188,10 @@
         <v>7.12</v>
       </c>
       <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
       </c>
       <c r="G14">
         <v>60.011000000000003</v>
@@ -2107,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2119,13 +2212,13 @@
         <v>-600402467</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" s="1">
         <v>44369</v>
@@ -2137,13 +2230,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2152,36 +2245,36 @@
         <v>1</v>
       </c>
       <c r="X14">
-        <v>1378</v>
+        <v>1675</v>
       </c>
       <c r="AB14">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE14">
-        <v>0.17056669999999999</v>
+        <v>0.19389999999999999</v>
       </c>
       <c r="AF14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>1245</v>
@@ -2193,10 +2286,10 @@
         <v>7.12</v>
       </c>
       <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
       </c>
       <c r="G15">
         <v>60.011000000000003</v>
@@ -2205,7 +2298,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2217,13 +2310,13 @@
         <v>-600402467</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="1">
         <v>44369</v>
@@ -2235,13 +2328,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U15">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2250,36 +2343,36 @@
         <v>1</v>
       </c>
       <c r="X15">
-        <v>1675</v>
+        <v>2332</v>
       </c>
       <c r="AB15">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE15">
-        <v>0.19389999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AF15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>1245</v>
@@ -2291,10 +2384,10 @@
         <v>7.12</v>
       </c>
       <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
       </c>
       <c r="G16">
         <v>60.011000000000003</v>
@@ -2303,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2315,13 +2408,13 @@
         <v>-600402467</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="1">
         <v>44369</v>
@@ -2333,51 +2426,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U16">
-        <v>2.5</v>
+        <v>3.94</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>2332</v>
+        <v>1697</v>
       </c>
       <c r="AB16">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE16">
-        <v>0.17499999999999999</v>
+        <v>0.21210100000000001</v>
       </c>
       <c r="AF16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>1245</v>
@@ -2389,10 +2482,10 @@
         <v>7.12</v>
       </c>
       <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
       </c>
       <c r="G17">
         <v>60.011000000000003</v>
@@ -2401,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2413,13 +2506,13 @@
         <v>-600402467</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" s="1">
         <v>44369</v>
@@ -2431,22 +2524,22 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U17">
-        <v>3.94</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1697</v>
+        <v>1406</v>
       </c>
       <c r="AB17">
         <v>50</v>
@@ -2455,27 +2548,27 @@
         <v>45</v>
       </c>
       <c r="AD17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE17">
-        <v>0.21210100000000001</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="AF17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG17">
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>1245</v>
@@ -2487,10 +2580,10 @@
         <v>7.12</v>
       </c>
       <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
       </c>
       <c r="G18">
         <v>60.011000000000003</v>
@@ -2499,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2511,13 +2604,13 @@
         <v>-600402467</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" s="1">
         <v>44369</v>
@@ -2529,13 +2622,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U18">
-        <v>2.3199999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2544,36 +2637,36 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1406</v>
+        <v>1496</v>
       </c>
       <c r="AB18">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE18">
-        <v>0.16889999999999999</v>
+        <v>0.18723329999999999</v>
       </c>
       <c r="AF18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG18">
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>1245</v>
@@ -2585,10 +2678,10 @@
         <v>7.12</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19">
         <v>60.011000000000003</v>
@@ -2597,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2609,13 +2702,13 @@
         <v>-600402467</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="1">
         <v>44369</v>
@@ -2627,13 +2720,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U19">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2642,36 +2735,36 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>1496</v>
+        <v>1616</v>
       </c>
       <c r="AB19">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC19" t="s">
         <v>45</v>
       </c>
       <c r="AD19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE19">
-        <v>0.18723329999999999</v>
+        <v>0.1861333</v>
       </c>
       <c r="AF19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>1245</v>
@@ -2683,10 +2776,10 @@
         <v>7.12</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20">
         <v>60.011000000000003</v>
@@ -2695,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2707,13 +2800,13 @@
         <v>-600402467</v>
       </c>
       <c r="M20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" s="1">
         <v>44369</v>
@@ -2725,51 +2818,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U20">
-        <v>1.42</v>
+        <v>3.04</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1616</v>
+        <v>1518</v>
       </c>
       <c r="AB20">
         <v>88</v>
       </c>
       <c r="AC20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE20">
-        <v>0.1861333</v>
+        <v>0.19081000000000001</v>
       </c>
       <c r="AF20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG20">
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1245</v>
@@ -2781,10 +2874,10 @@
         <v>7.12</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21">
         <v>60.011000000000003</v>
@@ -2793,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2805,13 +2898,13 @@
         <v>-600402467</v>
       </c>
       <c r="M21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" s="1">
         <v>44369</v>
@@ -2823,51 +2916,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U21">
-        <v>3.04</v>
+        <v>1.24</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>1518</v>
+        <v>1140</v>
       </c>
       <c r="AB21">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE21">
-        <v>0.19081000000000001</v>
+        <v>0.1944333</v>
       </c>
       <c r="AF21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>1245</v>
@@ -2879,10 +2972,10 @@
         <v>7.12</v>
       </c>
       <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
       </c>
       <c r="G22">
         <v>60.011000000000003</v>
@@ -2891,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2903,13 +2996,13 @@
         <v>-600402467</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P22" s="1">
         <v>44369</v>
@@ -2921,51 +3014,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U22">
-        <v>1.24</v>
+        <v>3.58</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
       </c>
       <c r="X22">
-        <v>1140</v>
+        <v>1235</v>
       </c>
       <c r="AB22">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC22" t="s">
         <v>45</v>
       </c>
       <c r="AD22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE22">
-        <v>0.1944333</v>
+        <v>0.18798000000000001</v>
       </c>
       <c r="AF22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG22">
         <v>1</v>
       </c>
       <c r="AH22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.58</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1245</v>
@@ -2977,10 +3070,10 @@
         <v>7.12</v>
       </c>
       <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
       </c>
       <c r="G23">
         <v>60.011000000000003</v>
@@ -2989,7 +3082,7 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3001,13 +3094,13 @@
         <v>-600402467</v>
       </c>
       <c r="M23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P23" s="1">
         <v>44369</v>
@@ -3019,51 +3112,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U23">
-        <v>3.58</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>1235</v>
+        <v>1360</v>
       </c>
       <c r="AB23">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE23">
-        <v>0.18798000000000001</v>
+        <v>0.1867</v>
       </c>
       <c r="AF23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG23">
         <v>1</v>
       </c>
       <c r="AH23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI23">
-        <v>3.58</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>1245</v>
@@ -3075,10 +3168,10 @@
         <v>7.12</v>
       </c>
       <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
       </c>
       <c r="G24">
         <v>60.011000000000003</v>
@@ -3087,7 +3180,7 @@
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3099,13 +3192,13 @@
         <v>-600402467</v>
       </c>
       <c r="M24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P24" s="1">
         <v>44369</v>
@@ -3117,51 +3210,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U24">
-        <v>2.3199999999999998</v>
+        <v>4.12</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>1360</v>
+        <v>1391</v>
       </c>
       <c r="AB24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC24" t="s">
         <v>45</v>
       </c>
       <c r="AD24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE24">
-        <v>0.1867</v>
+        <v>0.19531000000000001</v>
       </c>
       <c r="AF24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24">
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>4.12</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>1245</v>
@@ -3173,10 +3266,10 @@
         <v>7.12</v>
       </c>
       <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
       </c>
       <c r="G25">
         <v>60.011000000000003</v>
@@ -3185,7 +3278,7 @@
         <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3197,13 +3290,13 @@
         <v>-600402467</v>
       </c>
       <c r="M25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P25" s="1">
         <v>44369</v>
@@ -3215,51 +3308,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U25">
         <v>4.12</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>1</v>
       </c>
       <c r="X25">
-        <v>1391</v>
+        <v>1353</v>
       </c>
       <c r="AB25">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE25">
-        <v>0.19531000000000001</v>
+        <v>0.17166670000000001</v>
       </c>
       <c r="AF25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG25">
         <v>1</v>
       </c>
       <c r="AH25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25">
-        <v>4.12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>1245</v>
@@ -3271,10 +3364,10 @@
         <v>7.12</v>
       </c>
       <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
       </c>
       <c r="G26">
         <v>60.011000000000003</v>
@@ -3283,7 +3376,7 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3295,13 +3388,13 @@
         <v>-600402467</v>
       </c>
       <c r="M26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="1">
         <v>44369</v>
@@ -3313,13 +3406,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U26">
-        <v>4.12</v>
+        <v>2.5</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3328,36 +3421,36 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <v>1353</v>
+        <v>1362</v>
       </c>
       <c r="AB26">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC26" t="s">
         <v>45</v>
       </c>
       <c r="AD26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE26">
-        <v>0.17166670000000001</v>
+        <v>0.1616667</v>
       </c>
       <c r="AF26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26">
         <v>1</v>
       </c>
       <c r="AH26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>1245</v>
@@ -3369,10 +3462,10 @@
         <v>7.12</v>
       </c>
       <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
       </c>
       <c r="G27">
         <v>60.011000000000003</v>
@@ -3381,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3393,13 +3486,13 @@
         <v>-600402467</v>
       </c>
       <c r="M27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="1">
         <v>44369</v>
@@ -3411,13 +3504,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U27">
-        <v>2.5</v>
+        <v>3.94</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3426,36 +3519,36 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>1362</v>
+        <v>1886</v>
       </c>
       <c r="AB27">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE27">
-        <v>0.1616667</v>
+        <v>0.17946670000000001</v>
       </c>
       <c r="AF27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27">
         <v>1</v>
       </c>
       <c r="AH27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>1245</v>
@@ -3467,10 +3560,10 @@
         <v>7.12</v>
       </c>
       <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
         <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>38</v>
       </c>
       <c r="G28">
         <v>60.011000000000003</v>
@@ -3479,7 +3572,7 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -3491,13 +3584,13 @@
         <v>-600402467</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="1">
         <v>44369</v>
@@ -3509,13 +3602,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U28">
-        <v>3.94</v>
+        <v>3.22</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3524,36 +3617,36 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>1886</v>
+        <v>2008</v>
       </c>
       <c r="AB28">
         <v>12</v>
       </c>
       <c r="AC28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE28">
-        <v>0.17946670000000001</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="AF28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG28">
         <v>1</v>
       </c>
       <c r="AH28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1245</v>
@@ -3565,10 +3658,10 @@
         <v>7.12</v>
       </c>
       <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
         <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
       </c>
       <c r="G29">
         <v>60.011000000000003</v>
@@ -3577,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3589,13 +3682,13 @@
         <v>-600402467</v>
       </c>
       <c r="M29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P29" s="1">
         <v>44369</v>
@@ -3607,51 +3700,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U29">
-        <v>3.22</v>
+        <v>4.12</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="X29">
-        <v>2008</v>
+        <v>1022</v>
       </c>
       <c r="AB29">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC29" t="s">
         <v>45</v>
       </c>
       <c r="AD29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE29">
-        <v>0.19889999999999999</v>
+        <v>0.20480999999999999</v>
       </c>
       <c r="AF29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29">
         <v>1</v>
       </c>
       <c r="AH29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>4.12</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>1245</v>
@@ -3663,10 +3756,10 @@
         <v>7.12</v>
       </c>
       <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
         <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
       </c>
       <c r="G30">
         <v>60.011000000000003</v>
@@ -3675,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3687,13 +3780,13 @@
         <v>-600402467</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P30" s="1">
         <v>44369</v>
@@ -3705,51 +3798,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U30">
-        <v>4.12</v>
+        <v>2.68</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="X30">
-        <v>1022</v>
+        <v>1569</v>
       </c>
       <c r="AB30">
         <v>88</v>
       </c>
       <c r="AC30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE30">
-        <v>0.20480999999999999</v>
+        <v>0.1867</v>
       </c>
       <c r="AF30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG30">
         <v>1</v>
       </c>
       <c r="AH30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30">
-        <v>4.12</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>1245</v>
@@ -3761,10 +3854,10 @@
         <v>7.12</v>
       </c>
       <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
         <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
       </c>
       <c r="G31">
         <v>60.011000000000003</v>
@@ -3773,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3785,13 +3878,13 @@
         <v>-600402467</v>
       </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" s="1">
         <v>44369</v>
@@ -3803,13 +3896,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U31">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3818,36 +3911,36 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>1569</v>
+        <v>1399</v>
       </c>
       <c r="AB31">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE31">
-        <v>0.1867</v>
+        <v>0.19503329999999999</v>
       </c>
       <c r="AF31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG31">
         <v>1</v>
       </c>
       <c r="AH31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1245</v>
@@ -3859,10 +3952,10 @@
         <v>7.12</v>
       </c>
       <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
         <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
       </c>
       <c r="G32">
         <v>60.011000000000003</v>
@@ -3871,7 +3964,7 @@
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3883,13 +3976,13 @@
         <v>-600402467</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" s="1">
         <v>44369</v>
@@ -3901,51 +3994,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U32">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>1</v>
       </c>
       <c r="X32">
-        <v>1399</v>
+        <v>802</v>
       </c>
       <c r="AB32">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC32" t="s">
         <v>45</v>
       </c>
       <c r="AD32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE32">
-        <v>0.19503329999999999</v>
+        <v>0.20397999999999999</v>
       </c>
       <c r="AF32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG32">
         <v>1</v>
       </c>
       <c r="AH32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>1245</v>
@@ -3957,10 +4050,10 @@
         <v>7.12</v>
       </c>
       <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
         <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
       </c>
       <c r="G33">
         <v>60.011000000000003</v>
@@ -3969,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3981,13 +4074,13 @@
         <v>-600402467</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" s="1">
         <v>44369</v>
@@ -3999,51 +4092,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T33">
+        <v>32</v>
+      </c>
+      <c r="U33">
+        <v>3.76</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1786</v>
+      </c>
+      <c r="AB33">
+        <v>50</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD33" t="s">
         <v>31</v>
       </c>
-      <c r="U33">
-        <v>2.5</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>802</v>
-      </c>
-      <c r="AB33">
-        <v>88</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>32</v>
-      </c>
       <c r="AE33">
-        <v>0.20397999999999999</v>
+        <v>0.19333330000000001</v>
       </c>
       <c r="AF33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG33">
         <v>1</v>
       </c>
       <c r="AH33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI33">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>1245</v>
@@ -4055,10 +4148,10 @@
         <v>7.12</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
         <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
       </c>
       <c r="G34">
         <v>60.011000000000003</v>
@@ -4067,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4079,13 +4172,13 @@
         <v>-600402467</v>
       </c>
       <c r="M34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P34" s="1">
         <v>44369</v>
@@ -4097,13 +4190,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34">
-        <v>3.76</v>
+        <v>1.78</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -4112,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>1786</v>
+        <v>1511</v>
       </c>
       <c r="AB34">
         <v>50</v>
@@ -4121,27 +4214,27 @@
         <v>45</v>
       </c>
       <c r="AD34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE34">
-        <v>0.19333330000000001</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="AF34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG34">
         <v>1</v>
       </c>
       <c r="AH34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1245</v>
@@ -4153,10 +4246,10 @@
         <v>7.12</v>
       </c>
       <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
         <v>37</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
       </c>
       <c r="G35">
         <v>60.011000000000003</v>
@@ -4165,7 +4258,7 @@
         <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4177,13 +4270,13 @@
         <v>-600402467</v>
       </c>
       <c r="M35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P35" s="1">
         <v>44369</v>
@@ -4195,13 +4288,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U35">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4210,36 +4303,36 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>1511</v>
+        <v>1643</v>
       </c>
       <c r="AB35">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE35">
-        <v>0.18390000000000001</v>
+        <v>0.18946669999999999</v>
       </c>
       <c r="AF35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG35">
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1245</v>
@@ -4251,10 +4344,10 @@
         <v>7.12</v>
       </c>
       <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
         <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
       </c>
       <c r="G36">
         <v>60.011000000000003</v>
@@ -4263,7 +4356,7 @@
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4275,13 +4368,13 @@
         <v>-600402467</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P36" s="1">
         <v>44369</v>
@@ -4293,51 +4386,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U36">
-        <v>1.42</v>
+        <v>3.04</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36">
-        <v>1643</v>
+        <v>1330</v>
       </c>
       <c r="AB36">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE36">
-        <v>0.18946669999999999</v>
+        <v>0.18998000000000001</v>
       </c>
       <c r="AF36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG36">
         <v>1</v>
       </c>
       <c r="AH36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1245</v>
@@ -4349,10 +4442,10 @@
         <v>7.12</v>
       </c>
       <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
         <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>38</v>
       </c>
       <c r="G37">
         <v>60.011000000000003</v>
@@ -4361,7 +4454,7 @@
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4373,13 +4466,13 @@
         <v>-600402467</v>
       </c>
       <c r="M37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P37" s="1">
         <v>44369</v>
@@ -4391,13 +4484,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U37">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -4406,36 +4499,36 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <v>1330</v>
+        <v>1252</v>
       </c>
       <c r="AB37">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC37" t="s">
         <v>45</v>
       </c>
       <c r="AD37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE37">
+        <v>0.20896999999999999</v>
+      </c>
+      <c r="AF37">
         <v>32</v>
       </c>
-      <c r="AE37">
-        <v>0.18998000000000001</v>
-      </c>
-      <c r="AF37">
-        <v>31</v>
-      </c>
       <c r="AG37">
         <v>1</v>
       </c>
       <c r="AH37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>1245</v>
@@ -4447,10 +4540,10 @@
         <v>7.12</v>
       </c>
       <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
         <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>38</v>
       </c>
       <c r="G38">
         <v>60.011000000000003</v>
@@ -4459,7 +4552,7 @@
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4471,13 +4564,13 @@
         <v>-600402467</v>
       </c>
       <c r="M38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P38" s="1">
         <v>44369</v>
@@ -4489,51 +4582,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U38">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>1252</v>
+        <v>1389</v>
       </c>
       <c r="AB38">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE38">
-        <v>0.20896999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="AF38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG38">
         <v>1</v>
       </c>
       <c r="AH38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI38">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>1245</v>
@@ -4545,10 +4638,10 @@
         <v>7.12</v>
       </c>
       <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
         <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>38</v>
       </c>
       <c r="G39">
         <v>60.011000000000003</v>
@@ -4557,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4569,13 +4662,13 @@
         <v>-600402467</v>
       </c>
       <c r="M39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P39" s="1">
         <v>44369</v>
@@ -4587,13 +4680,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U39">
-        <v>3.22</v>
+        <v>1.24</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4602,36 +4695,36 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <v>1389</v>
+        <v>2819</v>
       </c>
       <c r="AB39">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC39" t="s">
         <v>45</v>
       </c>
       <c r="AD39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE39">
-        <v>0.22</v>
+        <v>0.19446669999999999</v>
       </c>
       <c r="AF39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG39">
         <v>1</v>
       </c>
       <c r="AH39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>1245</v>
@@ -4643,10 +4736,10 @@
         <v>7.12</v>
       </c>
       <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
         <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
       </c>
       <c r="G40">
         <v>60.011000000000003</v>
@@ -4655,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4667,13 +4760,13 @@
         <v>-600402467</v>
       </c>
       <c r="M40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P40" s="1">
         <v>44369</v>
@@ -4685,13 +4778,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U40">
-        <v>1.24</v>
+        <v>3.58</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4700,36 +4793,36 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>2819</v>
+        <v>2054</v>
       </c>
       <c r="AB40">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE40">
-        <v>0.19446669999999999</v>
+        <v>0.18223329999999999</v>
       </c>
       <c r="AF40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG40">
         <v>1</v>
       </c>
       <c r="AH40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>1245</v>
@@ -4741,10 +4834,10 @@
         <v>7.12</v>
       </c>
       <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
         <v>37</v>
-      </c>
-      <c r="F41" t="s">
-        <v>38</v>
       </c>
       <c r="G41">
         <v>60.011000000000003</v>
@@ -4753,7 +4846,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4765,13 +4858,13 @@
         <v>-600402467</v>
       </c>
       <c r="M41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P41" s="1">
         <v>44369</v>
@@ -4783,13 +4876,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U41">
-        <v>3.58</v>
+        <v>3.76</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4798,36 +4891,36 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>2054</v>
+        <v>1615</v>
       </c>
       <c r="AB41">
         <v>12</v>
       </c>
       <c r="AC41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE41">
-        <v>0.18223329999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AF41">
+        <v>36</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>36</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>35</v>
-      </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-      <c r="AH41">
-        <v>35</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>36</v>
       </c>
       <c r="B42">
         <v>1245</v>
@@ -4839,10 +4932,10 @@
         <v>7.12</v>
       </c>
       <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
         <v>37</v>
-      </c>
-      <c r="F42" t="s">
-        <v>38</v>
       </c>
       <c r="G42">
         <v>60.011000000000003</v>
@@ -4851,7 +4944,7 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4863,13 +4956,13 @@
         <v>-600402467</v>
       </c>
       <c r="M42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P42" s="1">
         <v>44369</v>
@@ -4881,51 +4974,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U42">
         <v>3.76</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>1</v>
       </c>
       <c r="X42">
-        <v>1615</v>
+        <v>973</v>
       </c>
       <c r="AB42">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC42" t="s">
         <v>45</v>
       </c>
       <c r="AD42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE42">
-        <v>0.20499999999999999</v>
+        <v>0.19930999999999999</v>
       </c>
       <c r="AF42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG42">
         <v>1</v>
       </c>
       <c r="AH42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>3.76</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>1245</v>
@@ -4937,10 +5030,10 @@
         <v>7.12</v>
       </c>
       <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
         <v>37</v>
-      </c>
-      <c r="F43" t="s">
-        <v>38</v>
       </c>
       <c r="G43">
         <v>60.011000000000003</v>
@@ -4949,7 +5042,7 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -4961,13 +5054,13 @@
         <v>-600402467</v>
       </c>
       <c r="M43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P43" s="1">
         <v>44369</v>
@@ -4979,13 +5072,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S43" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43">
         <v>42</v>
       </c>
-      <c r="T43">
-        <v>41</v>
-      </c>
       <c r="U43">
-        <v>3.76</v>
+        <v>2.14</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -4994,36 +5087,36 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>973</v>
+        <v>1544</v>
       </c>
       <c r="AB43">
         <v>88</v>
       </c>
       <c r="AC43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE43">
-        <v>0.19930999999999999</v>
+        <v>0.19331000000000001</v>
       </c>
       <c r="AF43">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG43">
         <v>1</v>
       </c>
       <c r="AH43">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI43">
-        <v>3.76</v>
+        <v>2.14</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>1245</v>
@@ -5035,10 +5128,10 @@
         <v>7.12</v>
       </c>
       <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
         <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>38</v>
       </c>
       <c r="G44">
         <v>60.011000000000003</v>
@@ -5047,7 +5140,7 @@
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -5059,13 +5152,13 @@
         <v>-600402467</v>
       </c>
       <c r="M44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P44" s="1">
         <v>44369</v>
@@ -5077,13 +5170,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U44">
-        <v>2.14</v>
+        <v>3.58</v>
       </c>
       <c r="V44">
         <v>1</v>
@@ -5092,36 +5185,36 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>1544</v>
+        <v>2604</v>
       </c>
       <c r="AB44">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE44">
-        <v>0.19331000000000001</v>
+        <v>0.20130999999999999</v>
       </c>
       <c r="AF44">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG44">
         <v>1</v>
       </c>
       <c r="AH44">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI44">
-        <v>2.14</v>
+        <v>3.58</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>1245</v>
@@ -5133,10 +5226,10 @@
         <v>7.12</v>
       </c>
       <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
         <v>37</v>
-      </c>
-      <c r="F45" t="s">
-        <v>38</v>
       </c>
       <c r="G45">
         <v>60.011000000000003</v>
@@ -5145,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5157,13 +5250,13 @@
         <v>-600402467</v>
       </c>
       <c r="M45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P45" s="1">
         <v>44369</v>
@@ -5175,51 +5268,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U45">
-        <v>3.58</v>
+        <v>1.6</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <v>1</v>
       </c>
       <c r="X45">
-        <v>2604</v>
+        <v>1022</v>
       </c>
       <c r="AB45">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE45">
-        <v>0.20130999999999999</v>
+        <v>0.19776669999999999</v>
       </c>
       <c r="AF45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG45">
         <v>1</v>
       </c>
       <c r="AH45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI45">
-        <v>3.58</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>1245</v>
@@ -5231,10 +5324,10 @@
         <v>7.12</v>
       </c>
       <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
         <v>37</v>
-      </c>
-      <c r="F46" t="s">
-        <v>38</v>
       </c>
       <c r="G46">
         <v>60.011000000000003</v>
@@ -5243,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -5255,13 +5348,13 @@
         <v>-600402467</v>
       </c>
       <c r="M46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P46" s="1">
         <v>44369</v>
@@ -5273,51 +5366,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T46">
+        <v>45</v>
+      </c>
+      <c r="U46">
+        <v>2.86</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1421</v>
+      </c>
+      <c r="AB46">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="s">
         <v>44</v>
       </c>
-      <c r="U46">
-        <v>1.6</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>1022</v>
-      </c>
-      <c r="AB46">
-        <v>88</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>45</v>
-      </c>
       <c r="AD46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE46">
-        <v>0.19776669999999999</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="AF46">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG46">
         <v>1</v>
       </c>
       <c r="AH46">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>1245</v>
@@ -5329,10 +5422,10 @@
         <v>7.12</v>
       </c>
       <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
         <v>37</v>
-      </c>
-      <c r="F47" t="s">
-        <v>38</v>
       </c>
       <c r="G47">
         <v>60.011000000000003</v>
@@ -5341,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -5353,13 +5446,13 @@
         <v>-600402467</v>
       </c>
       <c r="M47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P47" s="1">
         <v>44369</v>
@@ -5371,13 +5464,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U47">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5386,36 +5479,36 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <v>1421</v>
+        <v>1190</v>
       </c>
       <c r="AB47">
         <v>12</v>
       </c>
       <c r="AC47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE47">
-        <v>0.21609999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="AF47">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG47">
         <v>1</v>
       </c>
       <c r="AH47">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>1245</v>
@@ -5427,10 +5520,10 @@
         <v>7.12</v>
       </c>
       <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
         <v>37</v>
-      </c>
-      <c r="F48" t="s">
-        <v>38</v>
       </c>
       <c r="G48">
         <v>60.011000000000003</v>
@@ -5439,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -5451,13 +5544,13 @@
         <v>-600402467</v>
       </c>
       <c r="M48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P48" s="1">
         <v>44369</v>
@@ -5469,13 +5562,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U48">
-        <v>2.68</v>
+        <v>1.24</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5484,36 +5577,36 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>1190</v>
+        <v>1050</v>
       </c>
       <c r="AB48">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC48" t="s">
         <v>45</v>
       </c>
       <c r="AD48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE48">
-        <v>0.215</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="AF48">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG48">
         <v>1</v>
       </c>
       <c r="AH48">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>1245</v>
@@ -5525,10 +5618,10 @@
         <v>7.12</v>
       </c>
       <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
         <v>37</v>
-      </c>
-      <c r="F49" t="s">
-        <v>38</v>
       </c>
       <c r="G49">
         <v>60.011000000000003</v>
@@ -5537,7 +5630,7 @@
         <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -5549,13 +5642,13 @@
         <v>-600402467</v>
       </c>
       <c r="M49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P49" s="1">
         <v>44369</v>
@@ -5567,13 +5660,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U49">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5582,36 +5675,36 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>1050</v>
+        <v>1146</v>
       </c>
       <c r="AB49">
         <v>50</v>
       </c>
       <c r="AC49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE49">
-        <v>0.18890000000000001</v>
+        <v>0.14166670000000001</v>
       </c>
       <c r="AF49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG49">
         <v>1</v>
       </c>
       <c r="AH49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>1245</v>
@@ -5623,10 +5716,10 @@
         <v>7.12</v>
       </c>
       <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
         <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>38</v>
       </c>
       <c r="G50">
         <v>60.011000000000003</v>
@@ -5635,7 +5728,7 @@
         <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -5647,13 +5740,13 @@
         <v>-600402467</v>
       </c>
       <c r="M50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P50" s="1">
         <v>44369</v>
@@ -5665,13 +5758,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U50">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5680,36 +5773,36 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <v>1146</v>
+        <v>1358</v>
       </c>
       <c r="AB50">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="s">
         <v>45</v>
       </c>
       <c r="AD50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE50">
-        <v>0.14166670000000001</v>
+        <v>0.14946670000000001</v>
       </c>
       <c r="AF50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG50">
         <v>1</v>
       </c>
       <c r="AH50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>1245</v>
@@ -5721,10 +5814,10 @@
         <v>7.12</v>
       </c>
       <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
       </c>
       <c r="G51">
         <v>60.011000000000003</v>
@@ -5733,7 +5826,7 @@
         <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -5745,13 +5838,13 @@
         <v>-600402467</v>
       </c>
       <c r="M51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P51" s="1">
         <v>44369</v>
@@ -5763,13 +5856,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U51">
-        <v>1.6</v>
+        <v>2.86</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5778,36 +5871,36 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <v>1358</v>
+        <v>2297</v>
       </c>
       <c r="AB51">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE51">
+        <v>0.13333329999999999</v>
+      </c>
+      <c r="AF51">
         <v>46</v>
       </c>
-      <c r="AD51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE51">
-        <v>0.14946670000000001</v>
-      </c>
-      <c r="AF51">
-        <v>45</v>
-      </c>
       <c r="AG51">
         <v>1</v>
       </c>
       <c r="AH51">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>1245</v>
@@ -5819,10 +5912,10 @@
         <v>7.12</v>
       </c>
       <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
         <v>37</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
       </c>
       <c r="G52">
         <v>60.011000000000003</v>
@@ -5831,7 +5924,7 @@
         <v>9</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5843,13 +5936,13 @@
         <v>-600402467</v>
       </c>
       <c r="M52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P52" s="1">
         <v>44369</v>
@@ -5861,51 +5954,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U52">
-        <v>2.86</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>1</v>
       </c>
       <c r="X52">
-        <v>2297</v>
+        <v>4323</v>
       </c>
       <c r="AB52">
         <v>88</v>
       </c>
       <c r="AC52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE52">
-        <v>0.13333329999999999</v>
+        <v>0.19064</v>
       </c>
       <c r="AF52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG52">
         <v>1</v>
       </c>
       <c r="AH52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>1245</v>
@@ -5917,10 +6010,10 @@
         <v>7.12</v>
       </c>
       <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
         <v>37</v>
-      </c>
-      <c r="F53" t="s">
-        <v>38</v>
       </c>
       <c r="G53">
         <v>60.011000000000003</v>
@@ -5929,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -5941,13 +6034,13 @@
         <v>-600402467</v>
       </c>
       <c r="M53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P53" s="1">
         <v>44369</v>
@@ -5959,51 +6052,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U53">
-        <v>2.3199999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>1</v>
       </c>
       <c r="X53">
-        <v>4323</v>
+        <v>2563</v>
       </c>
       <c r="AB53">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE53">
-        <v>0.19064</v>
+        <v>0.1888667</v>
       </c>
       <c r="AF53">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG53">
         <v>1</v>
       </c>
       <c r="AH53">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>1245</v>
@@ -6015,10 +6108,10 @@
         <v>7.12</v>
       </c>
       <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
         <v>37</v>
-      </c>
-      <c r="F54" t="s">
-        <v>38</v>
       </c>
       <c r="G54">
         <v>60.011000000000003</v>
@@ -6027,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -6039,13 +6132,13 @@
         <v>-600402467</v>
       </c>
       <c r="M54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P54" s="1">
         <v>44369</v>
@@ -6057,51 +6150,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U54">
-        <v>3.4</v>
+        <v>3.94</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <v>1</v>
       </c>
       <c r="X54">
-        <v>2563</v>
+        <v>1407</v>
       </c>
       <c r="AB54">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC54" t="s">
         <v>45</v>
       </c>
       <c r="AD54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE54">
-        <v>0.1888667</v>
+        <v>0.19497999999999999</v>
       </c>
       <c r="AF54">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG54">
         <v>1</v>
       </c>
       <c r="AH54">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55">
         <v>1245</v>
@@ -6113,10 +6206,10 @@
         <v>7.12</v>
       </c>
       <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
         <v>37</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
       </c>
       <c r="G55">
         <v>60.011000000000003</v>
@@ -6125,7 +6218,7 @@
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -6137,13 +6230,13 @@
         <v>-600402467</v>
       </c>
       <c r="M55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P55" s="1">
         <v>44369</v>
@@ -6155,51 +6248,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U55">
-        <v>3.94</v>
+        <v>1.96</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>1</v>
       </c>
       <c r="X55">
-        <v>1407</v>
+        <v>1018</v>
       </c>
       <c r="AB55">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE55">
-        <v>0.19497999999999999</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AF55">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG55">
         <v>1</v>
       </c>
       <c r="AH55">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55">
-        <v>3.94</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>1245</v>
@@ -6211,10 +6304,10 @@
         <v>7.12</v>
       </c>
       <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
         <v>37</v>
-      </c>
-      <c r="F56" t="s">
-        <v>38</v>
       </c>
       <c r="G56">
         <v>60.011000000000003</v>
@@ -6223,7 +6316,7 @@
         <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -6235,13 +6328,13 @@
         <v>-600402467</v>
       </c>
       <c r="M56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P56" s="1">
         <v>44369</v>
@@ -6253,13 +6346,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U56">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -6268,36 +6361,36 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <v>1018</v>
+        <v>1409</v>
       </c>
       <c r="AB56">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC56" t="s">
         <v>45</v>
       </c>
       <c r="AD56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE56">
-        <v>0.19056670000000001</v>
+        <v>0.2016667</v>
       </c>
       <c r="AF56">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG56">
         <v>1</v>
       </c>
       <c r="AH56">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>1245</v>
@@ -6309,10 +6402,10 @@
         <v>7.12</v>
       </c>
       <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
         <v>37</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
       </c>
       <c r="G57">
         <v>60.011000000000003</v>
@@ -6321,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6333,13 +6426,13 @@
         <v>-600402467</v>
       </c>
       <c r="M57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P57" s="1">
         <v>44369</v>
@@ -6351,13 +6444,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U57">
-        <v>1.6</v>
+        <v>2.59</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6366,36 +6459,36 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <v>1409</v>
+        <v>1787</v>
       </c>
       <c r="AB57">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE57">
-        <v>0.2016667</v>
+        <v>0.1916667</v>
       </c>
       <c r="AF57">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG57">
         <v>1</v>
       </c>
       <c r="AH57">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>1245</v>
@@ -6407,10 +6500,10 @@
         <v>7.12</v>
       </c>
       <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
         <v>37</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
       </c>
       <c r="G58">
         <v>60.011000000000003</v>
@@ -6419,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -6431,13 +6524,13 @@
         <v>-600402467</v>
       </c>
       <c r="M58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P58" s="1">
         <v>44369</v>
@@ -6449,51 +6542,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58">
-        <v>2.59</v>
+        <v>3.49</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>1</v>
       </c>
       <c r="X58">
-        <v>1787</v>
+        <v>1323</v>
       </c>
       <c r="AB58">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE58">
-        <v>0.1916667</v>
+        <v>0.18881000000000001</v>
       </c>
       <c r="AF58">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG58">
         <v>1</v>
       </c>
       <c r="AH58">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>1245</v>
@@ -6505,10 +6598,10 @@
         <v>7.12</v>
       </c>
       <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
         <v>37</v>
-      </c>
-      <c r="F59" t="s">
-        <v>38</v>
       </c>
       <c r="G59">
         <v>60.011000000000003</v>
@@ -6517,7 +6610,7 @@
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -6529,13 +6622,13 @@
         <v>-600402467</v>
       </c>
       <c r="M59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P59" s="1">
         <v>44369</v>
@@ -6547,13 +6640,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59">
-        <v>3.49</v>
+        <v>3.85</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -6562,36 +6655,36 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <v>1323</v>
+        <v>1722</v>
       </c>
       <c r="AB59">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE59">
-        <v>0.18881000000000001</v>
+        <v>0.20080999999999999</v>
       </c>
       <c r="AF59">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG59">
         <v>1</v>
       </c>
       <c r="AH59">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>1245</v>
@@ -6603,10 +6696,10 @@
         <v>7.12</v>
       </c>
       <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
         <v>37</v>
-      </c>
-      <c r="F60" t="s">
-        <v>38</v>
       </c>
       <c r="G60">
         <v>60.011000000000003</v>
@@ -6615,7 +6708,7 @@
         <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -6627,13 +6720,13 @@
         <v>-600402467</v>
       </c>
       <c r="M60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P60" s="1">
         <v>44369</v>
@@ -6645,13 +6738,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60">
-        <v>3.85</v>
+        <v>4.21</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -6660,36 +6753,36 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>1722</v>
+        <v>2642</v>
       </c>
       <c r="AB60">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC60" t="s">
         <v>45</v>
       </c>
       <c r="AD60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE60">
-        <v>0.20080999999999999</v>
+        <v>0.19847999999999999</v>
       </c>
       <c r="AF60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG60">
         <v>1</v>
       </c>
       <c r="AH60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI60">
-        <v>0</v>
+        <v>4.21</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61">
         <v>1245</v>
@@ -6701,10 +6794,10 @@
         <v>7.12</v>
       </c>
       <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
         <v>37</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
       </c>
       <c r="G61">
         <v>60.011000000000003</v>
@@ -6713,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -6725,13 +6818,13 @@
         <v>-600402467</v>
       </c>
       <c r="M61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P61" s="1">
         <v>44369</v>
@@ -6743,51 +6836,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61">
-        <v>4.21</v>
+        <v>4.03</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61">
         <v>1</v>
       </c>
       <c r="X61">
-        <v>2642</v>
+        <v>829</v>
       </c>
       <c r="AB61">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE61">
-        <v>0.19847999999999999</v>
+        <v>0.19833329999999999</v>
       </c>
       <c r="AF61">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG61">
         <v>1</v>
       </c>
       <c r="AH61">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI61">
-        <v>4.21</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>1245</v>
@@ -6799,10 +6892,10 @@
         <v>7.12</v>
       </c>
       <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
         <v>37</v>
-      </c>
-      <c r="F62" t="s">
-        <v>38</v>
       </c>
       <c r="G62">
         <v>60.011000000000003</v>
@@ -6811,7 +6904,7 @@
         <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -6823,13 +6916,13 @@
         <v>-600402467</v>
       </c>
       <c r="M62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P62" s="1">
         <v>44369</v>
@@ -6841,13 +6934,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U62">
-        <v>4.03</v>
+        <v>3.67</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6856,36 +6949,36 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="AB62">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC62" t="s">
         <v>45</v>
       </c>
       <c r="AD62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE62">
-        <v>0.19833329999999999</v>
+        <v>0.18223329999999999</v>
       </c>
       <c r="AF62">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG62">
         <v>1</v>
       </c>
       <c r="AH62">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>1245</v>
@@ -6897,10 +6990,10 @@
         <v>7.12</v>
       </c>
       <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
         <v>37</v>
-      </c>
-      <c r="F63" t="s">
-        <v>38</v>
       </c>
       <c r="G63">
         <v>60.011000000000003</v>
@@ -6909,7 +7002,7 @@
         <v>9</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -6921,13 +7014,13 @@
         <v>-600402467</v>
       </c>
       <c r="M63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P63" s="1">
         <v>44369</v>
@@ -6939,10 +7032,10 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U63">
         <v>3.67</v>
@@ -6954,36 +7047,36 @@
         <v>1</v>
       </c>
       <c r="X63">
-        <v>834</v>
+        <v>1483</v>
       </c>
       <c r="AB63">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE63">
-        <v>0.18223329999999999</v>
+        <v>0.20056669999999999</v>
       </c>
       <c r="AF63">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG63">
         <v>1</v>
       </c>
       <c r="AH63">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>1245</v>
@@ -6995,10 +7088,10 @@
         <v>7.12</v>
       </c>
       <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
         <v>37</v>
-      </c>
-      <c r="F64" t="s">
-        <v>38</v>
       </c>
       <c r="G64">
         <v>60.011000000000003</v>
@@ -7007,7 +7100,7 @@
         <v>9</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -7019,13 +7112,13 @@
         <v>-600402467</v>
       </c>
       <c r="M64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P64" s="1">
         <v>44369</v>
@@ -7037,51 +7130,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U64">
-        <v>3.67</v>
+        <v>4.03</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>1</v>
       </c>
       <c r="X64">
-        <v>1483</v>
+        <v>1180</v>
       </c>
       <c r="AB64">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC64" t="s">
         <v>45</v>
       </c>
       <c r="AD64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE64">
-        <v>0.20056669999999999</v>
+        <v>0.19031000000000001</v>
       </c>
       <c r="AF64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG64">
         <v>1</v>
       </c>
       <c r="AH64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>4.03</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65">
         <v>1245</v>
@@ -7093,10 +7186,10 @@
         <v>7.12</v>
       </c>
       <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
         <v>37</v>
-      </c>
-      <c r="F65" t="s">
-        <v>38</v>
       </c>
       <c r="G65">
         <v>60.011000000000003</v>
@@ -7105,7 +7198,7 @@
         <v>9</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -7117,13 +7210,13 @@
         <v>-600402467</v>
       </c>
       <c r="M65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P65" s="1">
         <v>44369</v>
@@ -7135,51 +7228,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U65">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
         <v>1</v>
       </c>
       <c r="X65">
-        <v>1180</v>
+        <v>875</v>
       </c>
       <c r="AB65">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE65">
-        <v>0.19031000000000001</v>
+        <v>0.18776670000000001</v>
       </c>
       <c r="AF65">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG65">
         <v>1</v>
       </c>
       <c r="AH65">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI65">
-        <v>4.03</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>1245</v>
@@ -7191,10 +7284,10 @@
         <v>7.12</v>
       </c>
       <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
         <v>37</v>
-      </c>
-      <c r="F66" t="s">
-        <v>38</v>
       </c>
       <c r="G66">
         <v>60.011000000000003</v>
@@ -7203,7 +7296,7 @@
         <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -7215,13 +7308,13 @@
         <v>-600402467</v>
       </c>
       <c r="M66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P66" s="1">
         <v>44369</v>
@@ -7233,13 +7326,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U66">
-        <v>2.77</v>
+        <v>1.51</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -7248,36 +7341,36 @@
         <v>1</v>
       </c>
       <c r="X66">
-        <v>875</v>
+        <v>1619</v>
       </c>
       <c r="AB66">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC66" t="s">
         <v>45</v>
       </c>
       <c r="AD66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE66">
-        <v>0.18776670000000001</v>
+        <v>0.1733333</v>
       </c>
       <c r="AF66">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG66">
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67">
         <v>1245</v>
@@ -7289,10 +7382,10 @@
         <v>7.12</v>
       </c>
       <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
         <v>37</v>
-      </c>
-      <c r="F67" t="s">
-        <v>38</v>
       </c>
       <c r="G67">
         <v>60.011000000000003</v>
@@ -7301,7 +7394,7 @@
         <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -7313,13 +7406,13 @@
         <v>-600402467</v>
       </c>
       <c r="M67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P67" s="1">
         <v>44369</v>
@@ -7331,13 +7424,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U67">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -7346,36 +7439,36 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>1619</v>
+        <v>1519</v>
       </c>
       <c r="AB67">
         <v>88</v>
       </c>
       <c r="AC67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE67">
-        <v>0.1733333</v>
+        <v>0.18776670000000001</v>
       </c>
       <c r="AF67">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG67">
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>1245</v>
@@ -7387,10 +7480,10 @@
         <v>7.12</v>
       </c>
       <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
         <v>37</v>
-      </c>
-      <c r="F68" t="s">
-        <v>38</v>
       </c>
       <c r="G68">
         <v>60.011000000000003</v>
@@ -7399,7 +7492,7 @@
         <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -7411,13 +7504,13 @@
         <v>-600402467</v>
       </c>
       <c r="M68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P68" s="1">
         <v>44369</v>
@@ -7429,51 +7522,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U68">
-        <v>1.87</v>
+        <v>4.21</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68">
         <v>1</v>
       </c>
       <c r="X68">
-        <v>1519</v>
+        <v>2046</v>
       </c>
       <c r="AB68">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE68">
-        <v>0.18776670000000001</v>
+        <v>0.20580999999999999</v>
       </c>
       <c r="AF68">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG68">
         <v>1</v>
       </c>
       <c r="AH68">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>1245</v>
@@ -7485,10 +7578,10 @@
         <v>7.12</v>
       </c>
       <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
         <v>37</v>
-      </c>
-      <c r="F69" t="s">
-        <v>38</v>
       </c>
       <c r="G69">
         <v>60.011000000000003</v>
@@ -7497,7 +7590,7 @@
         <v>9</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -7509,13 +7602,13 @@
         <v>-600402467</v>
       </c>
       <c r="M69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P69" s="1">
         <v>44369</v>
@@ -7527,22 +7620,22 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U69">
-        <v>4.21</v>
+        <v>1.33</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69">
-        <v>2046</v>
+        <v>1012</v>
       </c>
       <c r="AB69">
         <v>50</v>
@@ -7551,27 +7644,27 @@
         <v>45</v>
       </c>
       <c r="AD69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE69">
-        <v>0.20580999999999999</v>
+        <v>0.17556669999999999</v>
       </c>
       <c r="AF69">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG69">
         <v>1</v>
       </c>
       <c r="AH69">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <v>1245</v>
@@ -7583,10 +7676,10 @@
         <v>7.12</v>
       </c>
       <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
         <v>37</v>
-      </c>
-      <c r="F70" t="s">
-        <v>38</v>
       </c>
       <c r="G70">
         <v>60.011000000000003</v>
@@ -7595,7 +7688,7 @@
         <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -7607,13 +7700,13 @@
         <v>-600402467</v>
       </c>
       <c r="M70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P70" s="1">
         <v>44369</v>
@@ -7625,13 +7718,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U70">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -7640,36 +7733,36 @@
         <v>1</v>
       </c>
       <c r="X70">
-        <v>1012</v>
+        <v>1253</v>
       </c>
       <c r="AB70">
         <v>50</v>
       </c>
       <c r="AC70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE70">
-        <v>0.17556669999999999</v>
+        <v>0.17666670000000001</v>
       </c>
       <c r="AF70">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG70">
         <v>1</v>
       </c>
       <c r="AH70">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>1245</v>
@@ -7681,10 +7774,10 @@
         <v>7.12</v>
       </c>
       <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
         <v>37</v>
-      </c>
-      <c r="F71" t="s">
-        <v>38</v>
       </c>
       <c r="G71">
         <v>60.011000000000003</v>
@@ -7693,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -7705,13 +7798,13 @@
         <v>-600402467</v>
       </c>
       <c r="M71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P71" s="1">
         <v>44369</v>
@@ -7723,13 +7816,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U71">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7738,36 +7831,36 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>1253</v>
+        <v>1044</v>
       </c>
       <c r="AB71">
         <v>50</v>
       </c>
       <c r="AC71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE71">
-        <v>0.17666670000000001</v>
+        <v>0.1805667</v>
       </c>
       <c r="AF71">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG71">
         <v>1</v>
       </c>
       <c r="AH71">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>1245</v>
@@ -7779,10 +7872,10 @@
         <v>7.12</v>
       </c>
       <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
         <v>37</v>
-      </c>
-      <c r="F72" t="s">
-        <v>38</v>
       </c>
       <c r="G72">
         <v>60.011000000000003</v>
@@ -7791,7 +7884,7 @@
         <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -7803,13 +7896,13 @@
         <v>-600402467</v>
       </c>
       <c r="M72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P72" s="1">
         <v>44369</v>
@@ -7821,51 +7914,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U72">
-        <v>1.51</v>
+        <v>3.13</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72">
         <v>1</v>
       </c>
       <c r="X72">
-        <v>1044</v>
+        <v>1790</v>
       </c>
       <c r="AB72">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE72">
-        <v>0.1805667</v>
+        <v>0.18631</v>
       </c>
       <c r="AF72">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG72">
         <v>1</v>
       </c>
       <c r="AH72">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>3.13</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>1245</v>
@@ -7877,10 +7970,10 @@
         <v>7.12</v>
       </c>
       <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
         <v>37</v>
-      </c>
-      <c r="F73" t="s">
-        <v>38</v>
       </c>
       <c r="G73">
         <v>60.011000000000003</v>
@@ -7889,7 +7982,7 @@
         <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7901,13 +7994,13 @@
         <v>-600402467</v>
       </c>
       <c r="M73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P73" s="1">
         <v>44369</v>
@@ -7919,51 +8012,51 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U73">
         <v>3.13</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73">
         <v>1</v>
       </c>
       <c r="X73">
-        <v>1790</v>
+        <v>2117</v>
       </c>
       <c r="AB73">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE73">
-        <v>0.18631</v>
+        <v>0.16943330000000001</v>
       </c>
       <c r="AF73">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG73">
         <v>1</v>
       </c>
       <c r="AH73">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI73">
-        <v>3.13</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>1245</v>
@@ -7975,10 +8068,10 @@
         <v>7.12</v>
       </c>
       <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
         <v>37</v>
-      </c>
-      <c r="F74" t="s">
-        <v>38</v>
       </c>
       <c r="G74">
         <v>60.011000000000003</v>
@@ -7987,7 +8080,7 @@
         <v>9</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -7999,13 +8092,13 @@
         <v>-600402467</v>
       </c>
       <c r="M74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P74" s="1">
         <v>44369</v>
@@ -8017,13 +8110,13 @@
         <v>0.58246527777777779</v>
       </c>
       <c r="S74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U74">
-        <v>3.13</v>
+        <v>3.85</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -8032,128 +8125,30 @@
         <v>1</v>
       </c>
       <c r="X74">
-        <v>2117</v>
+        <v>1322</v>
       </c>
       <c r="AB74">
         <v>12</v>
       </c>
       <c r="AC74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE74">
-        <v>0.16943330000000001</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="AF74">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG74">
         <v>1</v>
       </c>
       <c r="AH74">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75">
-        <v>1245</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>7.12</v>
-      </c>
-      <c r="E75" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75">
-        <v>60.011000000000003</v>
-      </c>
-      <c r="H75">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>39</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>7</v>
-      </c>
-      <c r="L75">
-        <v>-600402467</v>
-      </c>
-      <c r="M75" t="s">
-        <v>40</v>
-      </c>
-      <c r="N75" t="s">
-        <v>41</v>
-      </c>
-      <c r="O75" t="s">
-        <v>41</v>
-      </c>
-      <c r="P75" s="1">
-        <v>44369</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>44369.749131944445</v>
-      </c>
-      <c r="R75" s="3">
-        <v>0.58246527777777779</v>
-      </c>
-      <c r="S75" t="s">
-        <v>42</v>
-      </c>
-      <c r="T75">
-        <v>73</v>
-      </c>
-      <c r="U75">
-        <v>3.85</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>1</v>
-      </c>
-      <c r="X75">
-        <v>1322</v>
-      </c>
-      <c r="AB75">
-        <v>12</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE75">
-        <v>0.18279999999999999</v>
-      </c>
-      <c r="AF75">
-        <v>69</v>
-      </c>
-      <c r="AG75">
-        <v>1</v>
-      </c>
-      <c r="AH75">
-        <v>69</v>
-      </c>
-      <c r="AI75">
         <v>0</v>
       </c>
     </row>
